--- a/kernels.xlsx
+++ b/kernels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faq\Procesarea Imaginilor\Blurring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FFA0B6-4F02-400A-A3B6-1C05809EC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DCE4C8-3F6A-454C-BA06-CBD2DC39A6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="396" windowWidth="19440" windowHeight="12660" xr2:uid="{49533FA8-F2EC-45DE-9680-2B36B64222D1}"/>
+    <workbookView xWindow="12255" yWindow="-16260" windowWidth="16905" windowHeight="11055" xr2:uid="{49533FA8-F2EC-45DE-9680-2B36B64222D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>1/16</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -390,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576B883B-86C0-451C-BC21-55B089BA6304}">
-  <dimension ref="B7:M19"/>
+  <dimension ref="A7:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +625,15 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="1">
         <v>6.25E-2</v>
       </c>
@@ -630,6 +646,18 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
       <c r="I15" s="1">
         <v>6.25E-2</v>
       </c>
@@ -640,7 +668,18 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I17" s="1">
         <v>0</v>
       </c>
@@ -652,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I18" s="1">
         <v>0.125</v>
       </c>
@@ -664,7 +703,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I19" s="1">
         <v>0</v>
       </c>
@@ -673,6 +712,391 @@
       </c>
       <c r="K19" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <f>A21*B21</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <f>A21*C21</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <f>A21*D21</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="M21" s="1">
+        <f>E21*A21</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f>F21*A21</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <f>G21*A21</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <f>H21*A21</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ref="J22:J27" si="0">A22*B22</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" ref="K22:K27" si="1">A22*C22</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" ref="L22:L27" si="2">A22*D22</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M27" si="3">E22*A22</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:N27" si="4">F22*A22</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O27" si="5">G22*A22</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" ref="P22:P27" si="6">H22*A22</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <f>1/84</f>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1904761904761904E-2</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1904761904761904E-2</v>
       </c>
     </row>
   </sheetData>
